--- a/data/gear.xlsx
+++ b/data/gear.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
   <si>
     <t>id</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>No Skill</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Leather Armor</t>
@@ -561,17 +558,14 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -579,28 +573,28 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -608,28 +602,22 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -637,28 +625,25 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -666,28 +651,28 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -695,28 +680,28 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -724,28 +709,28 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -753,28 +738,28 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10">
@@ -782,28 +767,28 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -811,28 +796,28 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12">
@@ -840,57 +825,28 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
